--- a/AKSARA/public/templates/template_user.xlsx
+++ b/AKSARA/public/templates/template_user.xlsx
@@ -1,180 +1,202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data User" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>NIM/NIP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+  <si>
+    <t>Nama Lengkap</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
+    <t>NIP/NIM</t>
+  </si>
+  <si>
     <t>No Telepon</t>
   </si>
   <si>
     <t>Alamat</t>
   </si>
   <si>
-    <t>Andi</t>
-  </si>
-  <si>
-    <t>admin1@example.com</t>
+    <t>Kode Prodi</t>
+  </si>
+  <si>
+    <t>Tahun Angkatan</t>
+  </si>
+  <si>
+    <t>Udin Hartono</t>
+  </si>
+  <si>
+    <t>Saipul Jamil</t>
+  </si>
+  <si>
+    <t>Bu Rina</t>
+  </si>
+  <si>
+    <t>Pak Dedi</t>
+  </si>
+  <si>
+    <t>Budi Santoso</t>
+  </si>
+  <si>
+    <t>Ani Lestari</t>
+  </si>
+  <si>
+    <t>Joko Anwar</t>
+  </si>
+  <si>
+    <t>udin@example.com</t>
+  </si>
+  <si>
+    <t>saipul@example.com</t>
+  </si>
+  <si>
+    <t>rina@example.com</t>
+  </si>
+  <si>
+    <t>dedi@example.com</t>
+  </si>
+  <si>
+    <t>budi@example.com</t>
+  </si>
+  <si>
+    <t>ani@example.com</t>
+  </si>
+  <si>
+    <t>joko@example.com</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>085704024108</t>
-  </si>
-  <si>
-    <t>Tumpang</t>
-  </si>
-  <si>
-    <t>Annisa</t>
-  </si>
-  <si>
-    <t>dosen3@example.com</t>
-  </si>
-  <si>
     <t>dosen</t>
   </si>
   <si>
-    <t>0891234352</t>
-  </si>
-  <si>
-    <t>Madura</t>
-  </si>
-  <si>
-    <t>Ayu Syahputri</t>
-  </si>
-  <si>
-    <t>admin2@example.com</t>
-  </si>
-  <si>
-    <t>Cece Diana</t>
-  </si>
-  <si>
-    <t>mhs4@example.com</t>
-  </si>
-  <si>
     <t>mahasiswa</t>
   </si>
   <si>
-    <t>Cendikia</t>
-  </si>
-  <si>
-    <t>mhs2@example.com</t>
-  </si>
-  <si>
-    <t>0812345678</t>
-  </si>
-  <si>
-    <t>Dimas</t>
-  </si>
-  <si>
-    <t>mhs6@example.com</t>
-  </si>
-  <si>
-    <t>Ghetsa</t>
-  </si>
-  <si>
-    <t>111@example.com</t>
-  </si>
-  <si>
-    <t>Oltha</t>
-  </si>
-  <si>
-    <t>dosen2@example.com</t>
-  </si>
-  <si>
-    <t>Putri Padang</t>
-  </si>
-  <si>
-    <t>dosen1@example.com</t>
-  </si>
-  <si>
-    <t>Reika</t>
-  </si>
-  <si>
-    <t>mhs1@example.com</t>
-  </si>
-  <si>
-    <t>089321</t>
-  </si>
-  <si>
-    <t>Blitar</t>
-  </si>
-  <si>
-    <t>Rusdi</t>
-  </si>
-  <si>
-    <t>tama@mail.com</t>
-  </si>
-  <si>
-    <t>089123677891</t>
-  </si>
-  <si>
-    <t>Kidal Tumpang</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>mhs5@example.com</t>
-  </si>
-  <si>
-    <t>Wulandari</t>
-  </si>
-  <si>
-    <t>mhs3@example.com</t>
+    <t>198012345</t>
+  </si>
+  <si>
+    <t>198098765</t>
+  </si>
+  <si>
+    <t>197912345</t>
+  </si>
+  <si>
+    <t>197856789</t>
+  </si>
+  <si>
+    <t>21001001</t>
+  </si>
+  <si>
+    <t>21001002</t>
+  </si>
+  <si>
+    <t>21001003</t>
+  </si>
+  <si>
+    <t>081234567890</t>
+  </si>
+  <si>
+    <t>081298765432</t>
+  </si>
+  <si>
+    <t>081334455667</t>
+  </si>
+  <si>
+    <t>081322112233</t>
+  </si>
+  <si>
+    <t>082233445566</t>
+  </si>
+  <si>
+    <t>082144556677</t>
+  </si>
+  <si>
+    <t>081355667788</t>
+  </si>
+  <si>
+    <t>Jl. Merdeka No.1</t>
+  </si>
+  <si>
+    <t>Jl. Sudirman No.2</t>
+  </si>
+  <si>
+    <t>Jl. Anggrek No.3</t>
+  </si>
+  <si>
+    <t>Jl. Melati No.4</t>
+  </si>
+  <si>
+    <t>Jl. Kenanga No.5</t>
+  </si>
+  <si>
+    <t>Jl. Mawar No.6</t>
+  </si>
+  <si>
+    <t>Jl. Flamboyan No.7</t>
+  </si>
+  <si>
+    <t>TI01</t>
+  </si>
+  <si>
+    <t>SI01</t>
+  </si>
+  <si>
+    <t>MI01</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,19 +215,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -284,7 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -319,7 +357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,28 +532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.425" bestFit="true" customWidth="true" style="0"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,258 +561,199 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>10001</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-      <c r="C3">
-        <v>222223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>10002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>111113</v>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>111111</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>111115</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>111117</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>222222</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>222221</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11">
-        <v>2341720090</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12">
-        <v>10003</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>111114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14">
-        <v>111112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>